--- a/tourexcel.xlsx
+++ b/tourexcel.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bewijzenmap\jaar2\periode1\bap\TourTheJoey\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20360" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
-  <si>
-    <t>Definitieve Radio 1 Tour Top 100 - 2011</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Christophe Maé – Dingue dingue dingue</t>
   </si>
@@ -385,7 +380,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,824 +661,827 @@
   <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="2">
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="2">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="2">
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" s="2">
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" s="2">
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="2">
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="2">
         <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="2">
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="2">
         <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="2">
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" s="2">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="2">
         <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="2">
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="2">
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="2">
         <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="2">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="2">
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="2">
         <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="2">
         <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="2">
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="2">
         <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="2">
         <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="2">
         <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="2">
         <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
       <c r="A27" s="2">
         <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
       <c r="A28" s="2">
         <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="2">
         <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15">
       <c r="A30" s="2">
         <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15">
       <c r="A31" s="2">
         <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
       <c r="A32" s="2">
         <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15">
       <c r="A33" s="2">
         <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
       <c r="A34" s="2">
         <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
       <c r="A35" s="2">
         <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15">
       <c r="A36" s="2">
         <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15">
       <c r="A37" s="2">
         <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15">
       <c r="A38" s="2">
         <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15">
       <c r="A39" s="2">
         <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15">
       <c r="A40" s="2">
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15">
       <c r="A41" s="2">
         <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15">
       <c r="A42" s="2">
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15">
       <c r="A43" s="2">
         <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15">
       <c r="A44" s="2">
         <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15">
       <c r="A45" s="2">
         <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15">
       <c r="A46" s="2">
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15">
       <c r="A47" s="2">
         <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15">
       <c r="A48" s="2">
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15">
       <c r="A49" s="2">
         <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15">
       <c r="A50" s="2">
         <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15">
       <c r="A51" s="2">
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15">
       <c r="A53" s="2">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15">
       <c r="A54" s="2">
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15">
       <c r="A55" s="2">
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15">
       <c r="A56" s="2">
         <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15">
       <c r="A57" s="2">
         <v>45</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15">
       <c r="A58" s="2">
         <v>44</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15">
       <c r="A59" s="2">
         <v>43</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15">
       <c r="A60" s="2">
         <v>42</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15">
       <c r="A61" s="2">
         <v>41</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15">
       <c r="A62" s="2">
         <v>40</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15">
       <c r="A63" s="2">
         <v>39</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15">
       <c r="A64" s="2">
         <v>38</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15">
       <c r="A65" s="2">
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15">
       <c r="A66" s="2">
         <v>36</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15">
       <c r="A67" s="2">
         <v>35</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15">
       <c r="A68" s="2">
         <v>34</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15">
       <c r="A69" s="2">
         <v>33</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15">
       <c r="A70" s="2">
         <v>32</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15">
       <c r="A71" s="2">
         <v>31</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15">
       <c r="A72" s="2">
         <v>30</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15">
       <c r="A73" s="2">
         <v>29</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15">
       <c r="A74" s="2">
         <v>28</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15">
       <c r="A75" s="2">
         <v>27</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15">
       <c r="A76" s="2">
         <v>26</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15">
       <c r="A77" s="2">
         <v>25</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15">
       <c r="A78" s="2">
         <v>24</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15">
       <c r="A79" s="2">
         <v>23</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15">
       <c r="A80" s="2">
         <v>22</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15">
       <c r="A81" s="2">
         <v>21</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15">
       <c r="A82" s="2">
         <v>20</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15">
       <c r="A83" s="2">
         <v>19</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15">
       <c r="A84" s="2">
         <v>18</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15">
       <c r="A85" s="2">
         <v>17</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15">
       <c r="A86" s="2">
         <v>16</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15">
       <c r="A87" s="2">
         <v>15</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15">
       <c r="A88" s="2">
         <v>14</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15">
       <c r="A89" s="2">
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15">
       <c r="A90" s="2">
         <v>12</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15">
       <c r="A91" s="2">
         <v>11</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15">
       <c r="A92" s="2">
         <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15">
       <c r="A93" s="2">
         <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15">
       <c r="A94" s="2">
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15">
       <c r="A95" s="2">
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15">
       <c r="A96" s="2">
         <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15">
       <c r="A97" s="2">
         <v>5</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15">
       <c r="A98" s="2">
         <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15">
       <c r="A99" s="2">
         <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15">
       <c r="A100" s="2">
         <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15">
       <c r="A101" s="2">
         <v>1</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15">
       <c r="A103" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>